--- a/Assets/ExcelDatas/Phase.xlsx
+++ b/Assets/ExcelDatas/Phase.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dunn\Desktop\어드밴스\기획서\실제 사용할 테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Advence\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CD96EB-01AA-455D-8275-E6D63AEF0BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1189FBD3-3381-4CB0-B910-DD4F3CD90E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="16788" windowHeight="11256" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Define" sheetId="7" r:id="rId1"/>
+    <sheet name="Define" sheetId="7" state="hidden" r:id="rId1"/>
     <sheet name="PhaseTable" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="34">
   <si>
     <t>ALL:KEY</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,54 +106,55 @@
     <t>MonsterID2</t>
   </si>
   <si>
+    <t>FirstPrintMonster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TagetMonsterValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 설명입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterTable의 ID 값을 참조하여 불러옵니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴이 출력되는 거리 값을 적는 칼럼입니다. 단위 : cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지의 스크롤 속도입니다. 단위 : m/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterTable/ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫 몬스터가 출력되는 간격 입니다 ( 단위 :  cm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>MonsterID3</t>
-  </si>
-  <si>
-    <t>FirstPrintMonster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TagetMonsterValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 설명입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MonsterTable의 ID 값을 참조하여 불러옵니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>패턴이 출력되는 거리 값을 적는 칼럼입니다. 단위 : cm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지의 스크롤 속도입니다. 단위 : m/s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>첫 몬스터가 출력되는 간격 입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MonsterTable/ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이즈에서 출력을 목표로 하는 몬스터의 숫자 입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 페이즈에서 출력을 목표로 하는 몬스터의 숫자 입니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -161,7 +162,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +194,13 @@
       <charset val="129"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -216,7 +224,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -234,6 +242,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -772,7 +783,7 @@
   <dimension ref="A2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -800,7 +811,7 @@
         <v>1001</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -817,7 +828,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -834,7 +845,7 @@
         <v>1000</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
@@ -851,12 +862,12 @@
         <v>1000</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1</v>
@@ -871,12 +882,12 @@
         <v>19</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1</v>
@@ -891,12 +902,12 @@
         <v>20</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
@@ -908,10 +919,10 @@
         <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
@@ -922,13 +933,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2">
         <v>100</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
@@ -939,13 +950,13 @@
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2">
         <v>100</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -958,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -1015,7 +1026,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -1047,7 +1058,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>14</v>
@@ -1065,15 +1076,15 @@
         <v>18</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
-        <v>1001</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -1087,14 +1098,14 @@
       <c r="E4" s="2">
         <v>1000</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>19</v>
+      <c r="F4" s="2">
+        <v>1010</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1011</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1012</v>
       </c>
       <c r="I4" s="2">
         <v>100</v>
@@ -1105,7 +1116,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
-        <v>1002</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -1119,14 +1130,14 @@
       <c r="E5" s="2">
         <v>1000</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>21</v>
+      <c r="F5" s="2">
+        <v>1010</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1011</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1012</v>
       </c>
       <c r="I5" s="2">
         <v>100</v>
@@ -1137,7 +1148,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
-        <v>1003</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
@@ -1151,14 +1162,14 @@
       <c r="E6" s="2">
         <v>1000</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>21</v>
+      <c r="F6" s="2">
+        <v>1010</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1011</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1012</v>
       </c>
       <c r="I6" s="2">
         <v>100</v>
@@ -1169,7 +1180,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
-        <v>1004</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
@@ -1183,14 +1194,14 @@
       <c r="E7" s="2">
         <v>1000</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>21</v>
+      <c r="F7" s="2">
+        <v>1010</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1011</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1012</v>
       </c>
       <c r="I7" s="2">
         <v>100</v>
@@ -1201,7 +1212,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
-        <v>1005</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
@@ -1215,14 +1226,14 @@
       <c r="E8" s="2">
         <v>1000</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>21</v>
+      <c r="F8" s="2">
+        <v>1010</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1011</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1012</v>
       </c>
       <c r="I8" s="2">
         <v>100</v>
@@ -1233,7 +1244,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
-        <v>1006</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>13</v>
@@ -1247,14 +1258,14 @@
       <c r="E9" s="2">
         <v>1000</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>21</v>
+      <c r="F9" s="2">
+        <v>1010</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1011</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1012</v>
       </c>
       <c r="I9" s="2">
         <v>100</v>

--- a/Assets/ExcelDatas/Phase.xlsx
+++ b/Assets/ExcelDatas/Phase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Advence\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1189FBD3-3381-4CB0-B910-DD4F3CD90E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348ECC78-BB92-4BF8-B9D5-D2F78F230A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="16788" windowHeight="11256" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="7" state="hidden" r:id="rId1"/>
@@ -970,7 +970,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
@@ -1244,7 +1244,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>13</v>

--- a/Assets/ExcelDatas/Phase.xlsx
+++ b/Assets/ExcelDatas/Phase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Advence\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348ECC78-BB92-4BF8-B9D5-D2F78F230A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7AC1EB-9721-4C9D-BC92-C63DE4005C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="7" state="hidden" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="34">
   <si>
     <t>ALL:KEY</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,23 +250,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <strike val="0"/>
@@ -465,14 +449,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:J9" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A3:J9" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{CC8E0CCD-C85C-46BA-929C-F5BBFB5A1A79}" name="Stage" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{BF845FF7-45A1-459C-90FB-8D626C86D914}" name="ScrollSpeed" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{B7AD7FD8-28E2-4355-88F1-CE089BC58766}" name="PatternPrintInterval" dataDxfId="5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:I9" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A3:I9" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{CC8E0CCD-C85C-46BA-929C-F5BBFB5A1A79}" name="Stage" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{BF845FF7-45A1-459C-90FB-8D626C86D914}" name="ScrollSpeed" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="Monster1" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{41E40D0A-EB00-4101-9E22-C10A1824DF65}" name="Monster2" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{5657C871-CF87-4126-98E3-71E7CF24BD2F}" name="Monster3" dataDxfId="2"/>
@@ -967,10 +950,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -979,14 +962,13 @@
     <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" customWidth="1"/>
     <col min="4" max="4" width="9.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="12.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.796875" style="3"/>
+    <col min="5" max="7" width="12.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1000,7 +982,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
@@ -1014,11 +996,8 @@
       <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1046,11 +1025,8 @@
       <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1064,25 +1040,22 @@
         <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>40</v>
       </c>
@@ -1096,25 +1069,22 @@
         <v>1000</v>
       </c>
       <c r="E4" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F4" s="2">
         <v>1010</v>
       </c>
-      <c r="G4" s="6">
+      <c r="F4" s="6">
         <v>1011</v>
       </c>
+      <c r="G4" s="2">
+        <v>1012</v>
+      </c>
       <c r="H4" s="2">
-        <v>1012</v>
+        <v>100</v>
       </c>
       <c r="I4" s="2">
         <v>100</v>
       </c>
-      <c r="J4" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>41</v>
       </c>
@@ -1128,25 +1098,22 @@
         <v>1000</v>
       </c>
       <c r="E5" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F5" s="2">
         <v>1010</v>
       </c>
-      <c r="G5" s="6">
+      <c r="F5" s="6">
         <v>1011</v>
       </c>
+      <c r="G5" s="2">
+        <v>1012</v>
+      </c>
       <c r="H5" s="2">
-        <v>1012</v>
+        <v>100</v>
       </c>
       <c r="I5" s="2">
-        <v>100</v>
-      </c>
-      <c r="J5" s="2">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>42</v>
       </c>
@@ -1160,25 +1127,22 @@
         <v>1000</v>
       </c>
       <c r="E6" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F6" s="2">
         <v>1010</v>
       </c>
-      <c r="G6" s="6">
+      <c r="F6" s="6">
         <v>1011</v>
       </c>
+      <c r="G6" s="2">
+        <v>1012</v>
+      </c>
       <c r="H6" s="2">
-        <v>1012</v>
+        <v>100</v>
       </c>
       <c r="I6" s="2">
-        <v>100</v>
-      </c>
-      <c r="J6" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>43</v>
       </c>
@@ -1192,25 +1156,22 @@
         <v>1000</v>
       </c>
       <c r="E7" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F7" s="2">
         <v>1010</v>
       </c>
-      <c r="G7" s="6">
+      <c r="F7" s="6">
         <v>1011</v>
       </c>
+      <c r="G7" s="2">
+        <v>1012</v>
+      </c>
       <c r="H7" s="2">
-        <v>1012</v>
+        <v>100</v>
       </c>
       <c r="I7" s="2">
-        <v>100</v>
-      </c>
-      <c r="J7" s="2">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>44</v>
       </c>
@@ -1224,25 +1185,22 @@
         <v>1000</v>
       </c>
       <c r="E8" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F8" s="2">
         <v>1010</v>
       </c>
-      <c r="G8" s="6">
+      <c r="F8" s="6">
         <v>1011</v>
       </c>
+      <c r="G8" s="2">
+        <v>1012</v>
+      </c>
       <c r="H8" s="2">
-        <v>1012</v>
+        <v>100</v>
       </c>
       <c r="I8" s="2">
-        <v>100</v>
-      </c>
-      <c r="J8" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>45</v>
       </c>
@@ -1256,26 +1214,23 @@
         <v>1000</v>
       </c>
       <c r="E9" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F9" s="2">
         <v>1010</v>
       </c>
-      <c r="G9" s="6">
+      <c r="F9" s="6">
         <v>1011</v>
       </c>
+      <c r="G9" s="2">
+        <v>1012</v>
+      </c>
       <c r="H9" s="2">
-        <v>1012</v>
+        <v>100</v>
       </c>
       <c r="I9" s="2">
-        <v>100</v>
-      </c>
-      <c r="J9" s="2">
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="J15" s="3"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I15" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ExcelDatas/Phase.xlsx
+++ b/Assets/ExcelDatas/Phase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Advence\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YH\Git\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7AC1EB-9721-4C9D-BC92-C63DE4005C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB1DAB8-7E90-4490-A133-3105A4D39B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="7" state="hidden" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
   <si>
     <t>ALL:KEY</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +155,14 @@
   </si>
   <si>
     <t>해당 페이즈에서 출력을 목표로 하는 몬스터의 숫자 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL;KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetMonsterValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -162,7 +170,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,13 +202,6 @@
       <charset val="129"/>
       <scheme val="major"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="굴림"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -224,7 +225,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -243,14 +244,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -403,38 +433,6 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -449,18 +447,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:I9" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:I9" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="A3:I9" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{CC8E0CCD-C85C-46BA-929C-F5BBFB5A1A79}" name="Stage" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{BF845FF7-45A1-459C-90FB-8D626C86D914}" name="ScrollSpeed" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="Monster1" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{41E40D0A-EB00-4101-9E22-C10A1824DF65}" name="Monster2" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{5657C871-CF87-4126-98E3-71E7CF24BD2F}" name="Monster3" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{10204976-6592-4FB9-951E-15CCC0EC3849}" name="FirstPrintMonster" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{9A6465BD-2936-47C4-855B-716B5E435C3F}" name="TagetMonsterValue" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{CC8E0CCD-C85C-46BA-929C-F5BBFB5A1A79}" name="Stage" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{BF845FF7-45A1-459C-90FB-8D626C86D914}" name="ScrollSpeed" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="Monster1" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{41E40D0A-EB00-4101-9E22-C10A1824DF65}" name="Monster2" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{5657C871-CF87-4126-98E3-71E7CF24BD2F}" name="Monster3" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{10204976-6592-4FB9-951E-15CCC0EC3849}" name="FirstPrintMonster" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{9A6465BD-2936-47C4-855B-716B5E435C3F}" name="TargetMonsterValue" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -769,18 +767,18 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.796875" style="1"/>
-    <col min="4" max="4" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.796875" style="1"/>
-    <col min="6" max="6" width="8.796875" style="5"/>
-    <col min="7" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="1"/>
+    <col min="4" max="4" width="14.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="1"/>
+    <col min="6" max="6" width="8.75" style="5"/>
+    <col min="7" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -797,7 +795,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -814,7 +812,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -831,7 +829,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -848,7 +846,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -868,7 +866,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -888,7 +886,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -908,7 +906,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
@@ -925,7 +923,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
@@ -952,25 +950,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.25" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.796875" style="3"/>
+    <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -997,7 +995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1026,7 +1024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1052,10 +1050,10 @@
         <v>21</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>40</v>
       </c>
@@ -1071,7 +1069,7 @@
       <c r="E4" s="2">
         <v>1010</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="2">
         <v>1011</v>
       </c>
       <c r="G4" s="2">
@@ -1084,7 +1082,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>41</v>
       </c>
@@ -1100,7 +1098,7 @@
       <c r="E5" s="2">
         <v>1010</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="2">
         <v>1011</v>
       </c>
       <c r="G5" s="2">
@@ -1113,7 +1111,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>42</v>
       </c>
@@ -1129,7 +1127,7 @@
       <c r="E6" s="2">
         <v>1010</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="2">
         <v>1011</v>
       </c>
       <c r="G6" s="2">
@@ -1142,7 +1140,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43</v>
       </c>
@@ -1158,7 +1156,7 @@
       <c r="E7" s="2">
         <v>1010</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="2">
         <v>1011</v>
       </c>
       <c r="G7" s="2">
@@ -1171,7 +1169,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44</v>
       </c>
@@ -1187,7 +1185,7 @@
       <c r="E8" s="2">
         <v>1010</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="2">
         <v>1011</v>
       </c>
       <c r="G8" s="2">
@@ -1200,7 +1198,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>45</v>
       </c>
@@ -1216,7 +1214,7 @@
       <c r="E9" s="2">
         <v>1010</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="2">
         <v>1011</v>
       </c>
       <c r="G9" s="2">
@@ -1229,7 +1227,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I15" s="3"/>
     </row>
   </sheetData>

--- a/Assets/ExcelDatas/Phase.xlsx
+++ b/Assets/ExcelDatas/Phase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YH\Git\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB1DAB8-7E90-4490-A133-3105A4D39B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80ED330-9BD9-4573-9F2A-40B854F533FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
@@ -331,38 +331,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -433,6 +401,38 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -447,18 +447,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:I9" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:I9" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A3:I9" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{CC8E0CCD-C85C-46BA-929C-F5BBFB5A1A79}" name="Stage" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{BF845FF7-45A1-459C-90FB-8D626C86D914}" name="ScrollSpeed" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="Monster1" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{41E40D0A-EB00-4101-9E22-C10A1824DF65}" name="Monster2" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{5657C871-CF87-4126-98E3-71E7CF24BD2F}" name="Monster3" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{10204976-6592-4FB9-951E-15CCC0EC3849}" name="FirstPrintMonster" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{9A6465BD-2936-47C4-855B-716B5E435C3F}" name="TargetMonsterValue" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{CC8E0CCD-C85C-46BA-929C-F5BBFB5A1A79}" name="Stage" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{BF845FF7-45A1-459C-90FB-8D626C86D914}" name="ScrollSpeed" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="Monster1" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{41E40D0A-EB00-4101-9E22-C10A1824DF65}" name="Monster2" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{5657C871-CF87-4126-98E3-71E7CF24BD2F}" name="Monster3" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{10204976-6592-4FB9-951E-15CCC0EC3849}" name="FirstPrintMonster" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{9A6465BD-2936-47C4-855B-716B5E435C3F}" name="TargetMonsterValue" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -948,10 +948,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1227,9 +1227,6 @@
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I15" s="3"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ExcelDatas/Phase.xlsx
+++ b/Assets/ExcelDatas/Phase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YH\Git\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80ED330-9BD9-4573-9F2A-40B854F533FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{C80ED330-9BD9-4573-9F2A-40B854F533FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED91E46C-E5FC-4588-BBA3-597464428A9A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="1073" yWindow="1073" windowWidth="18644" windowHeight="10695" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="7" state="hidden" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
   <si>
     <t>ALL:KEY</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,6 +163,37 @@
   </si>
   <si>
     <t>TargetMonsterValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Background_Local</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GitHub\Project_Advence\Assets\Resources\Background\Stage1_Phase1</t>
+  </si>
+  <si>
+    <t>GitHub\Project_Advence\Assets\Resources\Background\Stage2_Phase1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GitHub\Project_Advence\Assets\Resources\Background\Stage2_Phase2</t>
+  </si>
+  <si>
+    <t>GitHub\Project_Advence\Assets\Resources\Background\Stage3_Phase1</t>
+  </si>
+  <si>
+    <t>GitHub\Project_Advence\Assets\Resources\Background\Stage3_Phase2</t>
+  </si>
+  <si>
+    <t>GitHub\Project_Advence\Assets\Resources\Background\Stage3_Phase3</t>
+  </si>
+  <si>
+    <t>ALL;KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -248,7 +279,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="9">
     <dxf>
       <font>
         <strike val="0"/>
@@ -283,39 +314,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -446,17 +449,19 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:I9" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A3:I9" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{CC8E0CCD-C85C-46BA-929C-F5BBFB5A1A79}" name="Stage" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{BF845FF7-45A1-459C-90FB-8D626C86D914}" name="ScrollSpeed" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="Monster1" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{41E40D0A-EB00-4101-9E22-C10A1824DF65}" name="Monster2" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{5657C871-CF87-4126-98E3-71E7CF24BD2F}" name="Monster3" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:G9" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A3:G9" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{CC8E0CCD-C85C-46BA-929C-F5BBFB5A1A79}" name="Stage" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{8625A633-6A8D-417D-BBE6-80F0F4A00567}" name="Background_Local" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{BF845FF7-45A1-459C-90FB-8D626C86D914}" name="ScrollSpeed" dataDxfId="2"/>
     <tableColumn id="7" xr3:uid="{10204976-6592-4FB9-951E-15CCC0EC3849}" name="FirstPrintMonster" dataDxfId="1"/>
     <tableColumn id="8" xr3:uid="{9A6465BD-2936-47C4-855B-716B5E435C3F}" name="TargetMonsterValue" dataDxfId="0"/>
   </tableColumns>
@@ -767,7 +772,7 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
@@ -778,7 +783,7 @@
     <col min="7" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -795,7 +800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -812,7 +817,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -829,7 +834,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -846,7 +851,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -866,7 +871,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -886,7 +891,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -906,7 +911,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
@@ -923,7 +928,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
@@ -948,25 +953,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="9.25" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.75" style="3"/>
+    <col min="4" max="4" width="44.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -977,10 +982,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
@@ -988,14 +993,8 @@
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1006,7 +1005,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1017,14 +1016,8 @@
       <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1035,25 +1028,19 @@
         <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A4" s="2">
         <v>40</v>
       </c>
@@ -1063,26 +1050,20 @@
       <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2">
         <v>1000</v>
       </c>
-      <c r="E4" s="2">
-        <v>1010</v>
-      </c>
       <c r="F4" s="2">
-        <v>1011</v>
+        <v>100</v>
       </c>
       <c r="G4" s="2">
-        <v>1012</v>
-      </c>
-      <c r="H4" s="2">
         <v>100</v>
       </c>
-      <c r="I4" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A5" s="2">
         <v>41</v>
       </c>
@@ -1092,26 +1073,20 @@
       <c r="C5" s="2">
         <v>2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="2">
         <v>1000</v>
       </c>
-      <c r="E5" s="2">
-        <v>1010</v>
-      </c>
       <c r="F5" s="2">
-        <v>1011</v>
+        <v>100</v>
       </c>
       <c r="G5" s="2">
-        <v>1012</v>
-      </c>
-      <c r="H5" s="2">
-        <v>100</v>
-      </c>
-      <c r="I5" s="2">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A6" s="2">
         <v>42</v>
       </c>
@@ -1121,26 +1096,20 @@
       <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2">
         <v>1000</v>
       </c>
-      <c r="E6" s="2">
-        <v>1010</v>
-      </c>
       <c r="F6" s="2">
-        <v>1011</v>
+        <v>100</v>
       </c>
       <c r="G6" s="2">
-        <v>1012</v>
-      </c>
-      <c r="H6" s="2">
-        <v>100</v>
-      </c>
-      <c r="I6" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A7" s="2">
         <v>43</v>
       </c>
@@ -1150,26 +1119,20 @@
       <c r="C7" s="2">
         <v>3</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2">
         <v>1000</v>
       </c>
-      <c r="E7" s="2">
-        <v>1010</v>
-      </c>
       <c r="F7" s="2">
-        <v>1011</v>
+        <v>100</v>
       </c>
       <c r="G7" s="2">
-        <v>1012</v>
-      </c>
-      <c r="H7" s="2">
-        <v>100</v>
-      </c>
-      <c r="I7" s="2">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A8" s="2">
         <v>44</v>
       </c>
@@ -1179,26 +1142,20 @@
       <c r="C8" s="2">
         <v>3</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="2">
         <v>1000</v>
       </c>
-      <c r="E8" s="2">
-        <v>1010</v>
-      </c>
       <c r="F8" s="2">
-        <v>1011</v>
+        <v>100</v>
       </c>
       <c r="G8" s="2">
-        <v>1012</v>
-      </c>
-      <c r="H8" s="2">
-        <v>100</v>
-      </c>
-      <c r="I8" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A9" s="2">
         <v>45</v>
       </c>
@@ -1208,22 +1165,16 @@
       <c r="C9" s="2">
         <v>3</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="2">
         <v>1000</v>
       </c>
-      <c r="E9" s="2">
-        <v>1010</v>
-      </c>
       <c r="F9" s="2">
-        <v>1011</v>
+        <v>100</v>
       </c>
       <c r="G9" s="2">
-        <v>1012</v>
-      </c>
-      <c r="H9" s="2">
-        <v>100</v>
-      </c>
-      <c r="I9" s="2">
         <v>250</v>
       </c>
     </row>

--- a/Assets/ExcelDatas/Phase.xlsx
+++ b/Assets/ExcelDatas/Phase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{C80ED330-9BD9-4573-9F2A-40B854F533FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED91E46C-E5FC-4588-BBA3-597464428A9A}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{C80ED330-9BD9-4573-9F2A-40B854F533FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0B724A7-C916-4B7D-A269-5E3C356E9FE2}"/>
   <bookViews>
-    <workbookView xWindow="1073" yWindow="1073" windowWidth="18644" windowHeight="10695" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="7" state="hidden" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
   <si>
     <t>ALL:KEY</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,14 +187,6 @@
   </si>
   <si>
     <t>GitHub\Project_Advence\Assets\Resources\Background\Stage3_Phase3</t>
-  </si>
-  <si>
-    <t>ALL;KEY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -955,9 +947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
   <cols>
@@ -982,7 +972,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -1005,7 +995,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
